--- a/import_xlxs/2017/0.xlsx
+++ b/import_xlxs/2017/0.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B2080-2C1E-4BE2-81C1-3DD1026FF2C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19FC0F-949F-42FC-B483-1F4E83D777D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Author Names</t>
   </si>
@@ -32,7 +32,7 @@
   </si>
   <si>
     <t>本研究…</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -56,31 +56,55 @@
       </rPr>
       <t xml:space="preserve"> (xxxxUniversity)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Paper Title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Abstract</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>論文名稱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>paperone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>論文名稱.pdf (860474 bytes)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Files</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,16 +157,325 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -150,27 +483,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="44">
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{1574CEEF-5C09-4C4A-B267-9133494F298C}"/>
+    <cellStyle name="一般 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="中等" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,21 +1062,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="3" max="3" width="37.09765625" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -475,8 +1090,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -489,9 +1107,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
